--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/主营业务税金及附加.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/主营业务税金及附加.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.1853</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.81566</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19512</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00104</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.30413</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.18387</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.15265</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.65163</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.29166</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.69914</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.842</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.31798</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.61977</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.9438</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.43699</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.10602</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.87122</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0.4643</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.00418</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.30958</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.35914</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.88034</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2.08138</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1.03888</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.64535</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.02921</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>44.91</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>3.52548</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.00587</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1.12216</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>2.67822</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>4.15739</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.44033</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.91512</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>2.00523</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>3.81985</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1.50119</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.30543</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.74465</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.54685</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3991</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00278</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.27017</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3.55922</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.4775</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.03044</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.48337</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.39357</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.93716</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.72182</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.51553</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.34723</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.50541</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.87141</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.48087</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.00083</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.55829</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.00065</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.54927</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.3783</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.09538</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3.2902</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1.81903</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.89315</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.00039</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>68.45999999999999</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>6.032</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.02335</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.90193</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>4.5092</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>5.96796</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.4868</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.21776</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>2.78479</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>5.85068</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.24657</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.54791</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.31455</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.17475</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.59107</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00208</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.03441</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.52909</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.60925</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.3679</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7229100000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.72208</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.35417</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.78132</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.04238</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.61023</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.4109</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4.12018</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.36491</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>0.86851</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.00061</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.02061</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.03581</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.23549</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.60291</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>4.17573</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2.18268</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.19396</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>95.67</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>8.985569999999999</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.01156</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2.54489</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>5.8331</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>8.693350000000001</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.77432</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1.87071</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>4.16331</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>6.90625</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.04332</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.77042</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
